--- a/biology/Botanique/Madame_Georges_Petit/Madame_Georges_Petit.xlsx
+++ b/biology/Botanique/Madame_Georges_Petit/Madame_Georges_Petit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Madame Georges Petit' est un cultivar de rosier obtenu en 1928 par la maison Ketten Frères au Luxembourg. Cet hybride de thé issu d'un croisement 'Général MacArthur' (Gurnay Hill 1901) x 'Madame Édouard Herriot' (Pernet-Ducher 1913)[1], est toujours commercialisé[2], notamment au Japon. 
+'Madame Georges Petit' est un cultivar de rosier obtenu en 1928 par la maison Ketten Frères au Luxembourg. Cet hybride de thé issu d'un croisement 'Général MacArthur' (Gurnay Hill 1901) x 'Madame Édouard Herriot' (Pernet-Ducher 1913), est toujours commercialisé, notamment au Japon. 
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cultivar se présente sous la forme d'un arbuste érigé de taille moyenne bien ramifié. Ses grandes fleurs semi-doubles ou doubles sont rouges nuancées de rouge cramoisi, virant au pourpre au fur et à mesure. Elles fleurissent en solitaire et sont fort parfumées. La floraison est remontante.
-La zone de rusticité de 'Madame Georges Petit' étant de 6b à 9b[1], elle résiste donc bien au froid. Elle préfère les situations bien ensoleillées.
+La zone de rusticité de 'Madame Georges Petit' étant de 6b à 9b, elle résiste donc bien au froid. Elle préfère les situations bien ensoleillées.
 La couleur éclatante de cette rose a toujours été son gage de succès.
 </t>
         </is>
